--- a/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T07:48:31+00:00</t>
+    <t>2024-05-29T07:49:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T07:49:03+00:00</t>
+    <t>2024-05-31T07:57:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T07:57:02+00:00</t>
+    <t>2024-05-31T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T07:57:56+00:00</t>
+    <t>2024-05-31T08:42:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T08:42:59+00:00</t>
+    <t>2024-05-31T08:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T08:43:23+00:00</t>
+    <t>2024-05-31T08:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/nr-test-delete-patient/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T08:45:00+00:00</t>
+    <t>2024-05-31T08:44:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
